--- a/mordheim_kai.xlsx
+++ b/mordheim_kai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\dev\Mordheim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3800E3F2-7BCD-40F2-A202-348972413A4C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A5916CF-35A0-4786-972F-850640AD5B22}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
   <si>
     <t>gold</t>
   </si>
@@ -147,21 +147,12 @@
     <t>(alle tragen einen dolch)</t>
   </si>
   <si>
-    <t>armbrust, leichte rüstung</t>
-  </si>
-  <si>
     <t>2 dolche/schwerter</t>
   </si>
   <si>
     <t>2 dolche/äxte/schwerter</t>
   </si>
   <si>
-    <t>3 speere</t>
-  </si>
-  <si>
-    <t>3 dolche/schwerter</t>
-  </si>
-  <si>
     <t>3x Speerträger, 1x 2 Schwert/Axt, 3x 1 Schwert</t>
   </si>
   <si>
@@ -171,28 +162,49 @@
     <t>Ausrüstung</t>
   </si>
   <si>
-    <t>custom boss</t>
-  </si>
-  <si>
-    <t>shaman</t>
-  </si>
-  <si>
-    <t>3 goblin speerträger</t>
-  </si>
-  <si>
-    <t>3 schlitzer goblins</t>
-  </si>
-  <si>
-    <t>1 goblin hero</t>
-  </si>
-  <si>
-    <t>1 narts goblin</t>
+    <t>ork savage boyz</t>
+  </si>
+  <si>
+    <t>1x Goblin Hero (Gamezone)</t>
+  </si>
+  <si>
+    <t>Kosten/Stück</t>
+  </si>
+  <si>
+    <t>1x Nartz (Freebooters Fate)</t>
+  </si>
+  <si>
+    <t>1x 3 Goblin Speerträger (Gamezone)</t>
+  </si>
+  <si>
+    <t>1x Orc Shaman (Avatars of War)</t>
+  </si>
+  <si>
+    <t>3  Fiese Schlitzer (GW)</t>
+  </si>
+  <si>
+    <t>1x custom boss</t>
+  </si>
+  <si>
+    <t>je 1 dolch/schwert</t>
+  </si>
+  <si>
+    <t>je 1 speer 3 schild</t>
+  </si>
+  <si>
+    <t>1x Dämonische Jägerin Banner (Gamezone)</t>
+  </si>
+  <si>
+    <t>für Schamane</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -271,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,9 +291,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -583,19 +602,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O25"/>
+  <dimension ref="A2:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
@@ -606,20 +625,21 @@
     <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>43332</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -644,14 +664,23 @@
       <c r="O4" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>47</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B5" s="4">
         <f>D16+J17+O16</f>
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -679,14 +708,24 @@
         <f>N5*M5</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
       <c r="B6">
         <f>B4-B5</f>
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -714,8 +753,18 @@
         <f t="shared" ref="O6:O15" si="1">N6*M6</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="R6" s="11">
+        <v>10.71</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>39</v>
       </c>
@@ -745,8 +794,18 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="11">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -785,8 +844,18 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="11">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -810,11 +879,11 @@
         <v>10</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L9" t="s">
         <v>17</v>
@@ -829,8 +898,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="11">
+        <v>0</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -870,8 +949,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="R10" s="11">
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -885,9 +970,6 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
       <c r="G11" t="s">
         <v>6</v>
       </c>
@@ -908,14 +990,20 @@
         <v>5</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -930,7 +1018,7 @@
         <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
@@ -958,8 +1046,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="S12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1000,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1021,11 +1118,11 @@
         <v>20</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
         <v>20</v>
@@ -1040,8 +1137,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R14" s="12">
+        <f>SUM(R5:R13)</f>
+        <v>52.069999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1082,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <f>SUM(D9:D15)</f>
         <v>225</v>
@@ -1102,7 +1203,7 @@
       </c>
       <c r="O16" s="1">
         <f>SUM(O5:O15)</f>
-        <v>65</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -1110,77 +1211,10 @@
       <c r="B17" s="2"/>
       <c r="J17" s="1">
         <f>SUM(J5:J16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-  </mergeCells>
   <conditionalFormatting sqref="B5">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
       <formula>$B$4</formula>

--- a/mordheim_kai.xlsx
+++ b/mordheim_kai.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\dev\Mordheim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3A5916CF-35A0-4786-972F-850640AD5B22}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB9CF817-FD84-4E98-B1BF-B1D9BF4CDCCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>gold</t>
   </si>
@@ -153,18 +153,12 @@
     <t>2 dolche/äxte/schwerter</t>
   </si>
   <si>
-    <t>3x Speerträger, 1x 2 Schwert/Axt, 3x 1 Schwert</t>
-  </si>
-  <si>
     <t>Mögliche einheiten</t>
   </si>
   <si>
     <t>Ausrüstung</t>
   </si>
   <si>
-    <t>ork savage boyz</t>
-  </si>
-  <si>
     <t>1x Goblin Hero (Gamezone)</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>1x Orc Shaman (Avatars of War)</t>
   </si>
   <si>
-    <t>3  Fiese Schlitzer (GW)</t>
-  </si>
-  <si>
     <t>1x custom boss</t>
   </si>
   <si>
@@ -196,6 +187,108 @@
   </si>
   <si>
     <t>für Schamane</t>
+  </si>
+  <si>
+    <t>1x 20 Bonesplitterz Savage Orruks</t>
+  </si>
+  <si>
+    <t>1x 3  Fiese Schlitzer (GW)</t>
+  </si>
+  <si>
+    <t>gold/einheit</t>
+  </si>
+  <si>
+    <t>gold/stück</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Ld</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Schamane</t>
+  </si>
+  <si>
+    <t>goblin war</t>
+  </si>
+  <si>
+    <t>squig</t>
+  </si>
+  <si>
+    <t>2D6</t>
+  </si>
+  <si>
+    <t>WS/g</t>
+  </si>
+  <si>
+    <t>BS/g</t>
+  </si>
+  <si>
+    <t>S/g</t>
+  </si>
+  <si>
+    <t>T/g</t>
+  </si>
+  <si>
+    <t>W/g</t>
+  </si>
+  <si>
+    <t>I/g</t>
+  </si>
+  <si>
+    <t>A/g</t>
+  </si>
+  <si>
+    <t>Ld/g</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Characteristik Analyse</t>
+  </si>
+  <si>
+    <t>gewichtung</t>
+  </si>
+  <si>
+    <t>3x armbrust, 3x Axt</t>
+  </si>
+  <si>
+    <t>3x Speer + 3x Schild, 1x 2 Schwert/Axt, 3x 1 Schwert</t>
+  </si>
+  <si>
+    <t>Gesamt</t>
+  </si>
+  <si>
+    <t>€/Figur</t>
+  </si>
+  <si>
+    <t>v1.0</t>
   </si>
 </sst>
 </file>
@@ -205,7 +298,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -241,6 +334,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -262,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -279,11 +380,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -301,11 +431,79 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -602,33 +800,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T17"/>
+  <dimension ref="A2:O58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -639,594 +839,1295 @@
         <v>43332</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
         <v>500</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="4">
+        <f>D17+D32+D46</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <f>B5-B6</f>
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" t="s">
-        <v>47</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="4">
-        <f>D16+J17+O16</f>
-        <v>335</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>I5*H5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5">
-        <v>2</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f>N5*M5</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="11">
-        <v>6.3</v>
-      </c>
-      <c r="S5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T5" s="7"/>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <f>B4-B5</f>
-        <v>165</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J16" si="0">I6*H6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f t="shared" ref="O6:O15" si="1">N6*M6</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" s="11">
-        <v>10.71</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="T6" s="7"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="R7" s="11">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="S7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="T7" s="7"/>
-    </row>
-    <row r="8" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" s="11">
-        <v>9.4499999999999993</v>
-      </c>
-      <c r="S8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="G9" s="16"/>
+      <c r="H9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>80</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <f>C9*B9</f>
-        <v>80</v>
-      </c>
-      <c r="E9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" s="11">
-        <v>0</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" s="7"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>40</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D15" si="2">C10*B10</f>
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
+        <f>C10*B10</f>
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>71</v>
       </c>
       <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="R10" s="11">
-        <v>10.36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>40</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
+        <f t="shared" ref="D11:D16" si="0">C11*B11</f>
+        <v>40</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>59</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" t="s">
-        <v>11</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>3</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="R11" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="G12" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>24</v>
-      </c>
-      <c r="B12">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>105</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>25</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" t="s">
-        <v>10</v>
-      </c>
-      <c r="M12">
-        <v>10</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R12" s="11">
-        <v>6.3</v>
-      </c>
-      <c r="S12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>25</v>
       </c>
       <c r="B13">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D13">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5">
+        <v>200</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C10:C16)</f>
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <f>SUM(D10:D16)</f>
+        <v>300</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="G18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="O19" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>C20*B20</f>
+        <v>0</v>
+      </c>
+      <c r="E20"/>
+      <c r="G20" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="7">
+        <f>$O20*H11/H$29</f>
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" ref="I20:N20" si="1">$O20*I11/I$29</f>
+        <v>0.75</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="L20" s="7">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="M20" s="7">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="N20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="O20" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ref="D21:D31" si="2">C21*B21</f>
+        <v>15</v>
+      </c>
+      <c r="E21"/>
+      <c r="G21" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" ref="H21:N27" si="3">$O21*H12/H$29</f>
+        <v>0.5</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="K21" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2</v>
+      </c>
+      <c r="L21" s="7">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="O21" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G13" t="s">
+      <c r="E22"/>
+      <c r="G22" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="J22" s="7">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="K22" s="7">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="L22" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="M22" s="7">
+        <f t="shared" si="3"/>
+        <v>2.1333333333333333</v>
+      </c>
+      <c r="N22" s="7">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="O22" s="7">
         <v>8</v>
       </c>
-      <c r="H13">
+    </row>
+    <row r="23" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23">
         <v>10</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E23"/>
+      <c r="G23" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="7">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="7">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="K23" s="7">
+        <f t="shared" si="3"/>
+        <v>1.28</v>
+      </c>
+      <c r="L23" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="3"/>
+        <v>1.6</v>
+      </c>
+      <c r="N23" s="7">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="O23" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="E24"/>
+      <c r="G24" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="7">
+        <f t="shared" si="3"/>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I24" s="7">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J24" s="7">
+        <f t="shared" si="3"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="K24" s="7">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="L24" s="7">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="N24" s="7">
+        <f t="shared" si="3"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="O24" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E25"/>
+      <c r="G25" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="7">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="I25" s="7">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="J25" s="7">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="K25" s="7">
+        <f t="shared" si="3"/>
+        <v>0.32</v>
+      </c>
+      <c r="L25" s="7">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="3"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="N25" s="7">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="O25" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E26"/>
+      <c r="G26" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J26" s="7">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K26" s="7">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="L26" s="7">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M26" s="7">
+        <f t="shared" si="3"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="N26" s="7">
+        <f t="shared" si="3"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="O26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="E27"/>
+      <c r="G27" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="3"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="3"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K27" s="7">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="M27" s="7">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N27" s="7">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="O27" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E28"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E29"/>
+      <c r="G29" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="14">
+        <f>B10</f>
+        <v>80</v>
+      </c>
+      <c r="I29" s="14">
+        <f>B11</f>
+        <v>40</v>
+      </c>
+      <c r="J29" s="14">
+        <f>B12</f>
+        <v>40</v>
+      </c>
+      <c r="K29" s="14">
+        <f>B15</f>
+        <v>25</v>
+      </c>
+      <c r="L29" s="14">
+        <f>B13</f>
+        <v>15</v>
+      </c>
+      <c r="M29" s="14">
+        <f>B14</f>
+        <v>15</v>
+      </c>
+      <c r="N29" s="14">
+        <f>B16</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E30"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="5">
+        <v>10</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E31"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="1">
+        <f>SUM(D20:D31)</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f>C35*B35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36:D45" si="4">C36*B36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>19</v>
       </c>
-      <c r="M13">
+      <c r="B43">
         <v>15</v>
       </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="5">
         <v>25</v>
       </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14">
-        <v>20</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14">
-        <v>15</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="12">
-        <f>SUM(R5:R13)</f>
-        <v>52.069999999999993</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5">
-        <v>200</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15">
-        <v>5</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="5">
-        <v>25</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="1">
-        <f>SUM(D9:D15)</f>
-        <v>225</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="5">
-        <v>10</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <f>SUM(O5:O15)</f>
+      <c r="C45" s="5">
+        <v>0</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" s="7" customFormat="1" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46" s="1">
+        <f>SUM(D35:D45)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="J17" s="1">
-        <f>SUM(J5:J16)</f>
-        <v>30</v>
+    <row r="47" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="11">
+        <f>B49/1</f>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="11">
+        <v>10.71</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="11">
+        <f>B50/1</f>
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="11">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="11">
+        <f>B51/3</f>
+        <v>2.9833333333333329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="11">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" s="11">
+        <f>B52/3</f>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="11">
+        <v>0</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="11">
+        <f t="shared" ref="D53:D56" si="5">B53/1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="11">
+        <v>10.36</v>
+      </c>
+      <c r="D54" s="11">
+        <f>B54/1</f>
+        <v>10.36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D55" s="11">
+        <f>B55/20</f>
+        <v>1.7600000000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B56" s="11">
+        <v>6.3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="11">
+        <f t="shared" si="5"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="12">
+        <f>SUM(B49:B57)</f>
+        <v>87.27</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
-      <formula>$B$4</formula>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
+      <formula>$B$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D15">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="D10:D16">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1237,6 +2138,66 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B49:B56">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D56">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:N18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29:N29">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20:N27">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/mordheim_kai.xlsx
+++ b/mordheim_kai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\klaute\Dropbox\Privat\Mordheim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB9CF817-FD84-4E98-B1BF-B1D9BF4CDCCC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0AC9DE88-F085-48F1-887A-57B01FCF54F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>gold</t>
   </si>
@@ -90,18 +90,9 @@
     <t>ball und kette</t>
   </si>
   <si>
-    <t>ork boss</t>
-  </si>
-  <si>
-    <t>schamane</t>
-  </si>
-  <si>
     <t>big uns</t>
   </si>
   <si>
-    <t>goblin warrior</t>
-  </si>
-  <si>
     <t>cave squig</t>
   </si>
   <si>
@@ -276,19 +267,40 @@
     <t>gewichtung</t>
   </si>
   <si>
-    <t>3x armbrust, 3x Axt</t>
-  </si>
-  <si>
-    <t>3x Speer + 3x Schild, 1x 2 Schwert/Axt, 3x 1 Schwert</t>
-  </si>
-  <si>
     <t>Gesamt</t>
   </si>
   <si>
     <t>€/Figur</t>
   </si>
   <si>
-    <t>v1.0</t>
+    <t>big uns (0-3)</t>
+  </si>
+  <si>
+    <t>goblin warrior (max 2x anz boyz)</t>
+  </si>
+  <si>
+    <t>schamane (0-1)</t>
+  </si>
+  <si>
+    <t>ork boss (1)</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>henchmen</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>speere + schild</t>
+  </si>
+  <si>
+    <t>3xaxt + 1xschild + 2xschwert</t>
+  </si>
+  <si>
+    <t>v1.1</t>
   </si>
 </sst>
 </file>
@@ -413,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -439,71 +451,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -800,9 +755,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O58"/>
+  <dimension ref="A2:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -830,10 +785,10 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D2" s="8">
         <v>43332</v>
@@ -841,7 +796,7 @@
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D3" s="8"/>
     </row>
@@ -855,7 +810,7 @@
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4">
         <f>D17+D32+D46</f>
@@ -864,63 +819,74 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <f>B5-B6</f>
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>39</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="N9" s="15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B10">
         <v>80</v>
@@ -933,10 +899,10 @@
         <v>80</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -954,7 +920,7 @@
         <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>6</v>
@@ -962,7 +928,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="B11">
         <v>40</v>
@@ -975,7 +941,7 @@
         <v>40</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H11">
         <v>4</v>
@@ -1001,20 +967,23 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>40</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1040,23 +1009,23 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B13">
         <v>15</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H13">
         <v>4</v>
@@ -1082,20 +1051,23 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>88</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -1121,23 +1093,23 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15">
         <v>25</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="G15" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1163,7 +1135,7 @@
     </row>
     <row r="16" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B16" s="5">
         <v>200</v>
@@ -1176,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1200,20 +1172,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <f>SUM(C10:C16)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1">
         <f>SUM(D10:D16)</f>
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="G17" s="17" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1237,11 +1209,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="G18" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H18">
         <v>8</v>
@@ -1265,25 +1237,25 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E19" s="13"/>
       <c r="O19" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1299,14 +1271,14 @@
       </c>
       <c r="E20"/>
       <c r="G20" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H20" s="7">
         <f>$O20*H11/H$29</f>
         <v>0.5</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" ref="I20:N20" si="1">$O20*I11/I$29</f>
+        <f t="shared" ref="I20:J20" si="1">$O20*I11/I$29</f>
         <v>0.75</v>
       </c>
       <c r="J20" s="7">
@@ -1314,26 +1286,30 @@
         <v>1</v>
       </c>
       <c r="K20" s="7">
-        <f t="shared" si="1"/>
-        <v>1.2</v>
+        <f>$P20*K11/K$29</f>
+        <v>0.84</v>
       </c>
       <c r="L20" s="7">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
+        <f t="shared" ref="L20:N20" si="2">$P20*L11/L$29</f>
+        <v>0.93333333333333335</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
+        <f t="shared" si="2"/>
+        <v>1.8666666666666667</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="1"/>
-        <v>0.15</v>
+        <f t="shared" si="2"/>
+        <v>0.105</v>
       </c>
       <c r="O20" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P20" s="7">
+        <f>O20-3</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1344,46 +1320,50 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:D31" si="2">C21*B21</f>
+        <f t="shared" ref="D21:D31" si="3">C21*B21</f>
         <v>15</v>
       </c>
       <c r="E21"/>
       <c r="G21" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" ref="H21:N27" si="3">$O21*H12/H$29</f>
+        <f t="shared" ref="H21:J27" si="4">$O21*H12/H$29</f>
         <v>0.5</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="J21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="K21" s="7">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
+        <f t="shared" ref="K21:N21" si="5">$P21*K12/K$29</f>
+        <v>0.84</v>
       </c>
       <c r="L21" s="7">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>1.4</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N21" s="7">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
+        <f t="shared" si="5"/>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="O21" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P21" s="7">
+        <f t="shared" ref="P21:P25" si="6">O21-3</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -1394,46 +1374,50 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E22"/>
       <c r="G22" s="18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="J22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
       <c r="K22" s="7">
-        <f t="shared" si="3"/>
-        <v>0.96</v>
+        <f t="shared" ref="K22:N22" si="7">$P22*K13/K$29</f>
+        <v>0.6</v>
       </c>
       <c r="L22" s="7">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" si="3"/>
-        <v>2.1333333333333333</v>
+        <f t="shared" si="7"/>
+        <v>1.3333333333333333</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="7"/>
+        <v>0.125</v>
       </c>
       <c r="O22" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P22" s="7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1441,49 +1425,53 @@
         <v>10</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="E23"/>
       <c r="G23" s="18" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="I23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="J23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="K23" s="7">
-        <f t="shared" si="3"/>
-        <v>1.28</v>
+        <f t="shared" ref="K23:N23" si="8">$P23*K14/K$29</f>
+        <v>0.8</v>
       </c>
       <c r="L23" s="7">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" si="3"/>
-        <v>1.6</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" si="3"/>
-        <v>0.16</v>
+        <f t="shared" si="8"/>
+        <v>0.1</v>
       </c>
       <c r="O23" s="7">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P23" s="7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1494,46 +1482,50 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E24"/>
       <c r="G24" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="I24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="J24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="K24" s="7">
-        <f t="shared" si="3"/>
-        <v>0.12</v>
+        <f t="shared" ref="K24:N24" si="9">$P24*K15/K$29</f>
+        <v>0</v>
       </c>
       <c r="L24" s="7">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="M24" s="7">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="N24" s="7">
-        <f t="shared" si="3"/>
-        <v>4.4999999999999998E-2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O24" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P24" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1544,46 +1536,50 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E25"/>
       <c r="G25" s="18" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15</v>
       </c>
       <c r="I25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="J25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="K25" s="7">
-        <f t="shared" si="3"/>
-        <v>0.32</v>
+        <f t="shared" ref="K25:N25" si="10">$P25*K16/K$29</f>
+        <v>0.08</v>
       </c>
       <c r="L25" s="7">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
+        <f t="shared" si="10"/>
+        <v>0.2</v>
       </c>
       <c r="M25" s="7">
-        <f t="shared" si="3"/>
-        <v>1.0666666666666667</v>
+        <f t="shared" si="10"/>
+        <v>0.26666666666666666</v>
       </c>
       <c r="N25" s="7">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
+        <f t="shared" si="10"/>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O25" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P25" s="7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1594,46 +1590,49 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E26"/>
       <c r="G26" s="18" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="I26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="J26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="K26" s="7">
-        <f t="shared" si="3"/>
-        <v>0.04</v>
+        <f t="shared" ref="K26:N26" si="11">$P26*K17/K$29</f>
+        <v>0.02</v>
       </c>
       <c r="L26" s="7">
-        <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="M26" s="7">
-        <f t="shared" si="3"/>
-        <v>6.6666666666666666E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="N26" s="7">
-        <f t="shared" si="3"/>
-        <v>1.4999999999999999E-2</v>
+        <f t="shared" si="11"/>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="O26" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P26" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -1641,49 +1640,52 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <f t="shared" si="2"/>
-        <v>75</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E27"/>
       <c r="G27" s="18" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="I27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="J27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17499999999999999</v>
       </c>
       <c r="K27" s="7">
-        <f t="shared" si="3"/>
-        <v>0.28000000000000003</v>
+        <f t="shared" ref="K27:N27" si="12">$P27*K18/K$29</f>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L27" s="7">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="12"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M27" s="7">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="12"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N27" s="7">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
+        <f t="shared" si="12"/>
+        <v>0.01</v>
       </c>
       <c r="O27" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P27" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1691,16 +1693,16 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
       </c>
       <c r="E28"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1711,12 +1713,12 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="E29"/>
       <c r="G29" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H29" s="14">
         <f>B10</f>
@@ -1747,7 +1749,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1755,16 +1757,16 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="E30"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:15" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>10</v>
       </c>
@@ -1775,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E31"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:15" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D32" s="1">
         <f>SUM(D20:D31)</f>
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1795,13 +1797,13 @@
         <v>13</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1830,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D45" si="4">C36*B36</f>
+        <f t="shared" ref="D36:D45" si="13">C36*B36</f>
         <v>0</v>
       </c>
     </row>
@@ -1842,11 +1844,11 @@
         <v>10</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1860,7 +1862,7 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
     </row>
@@ -1875,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1890,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1905,7 +1907,7 @@
         <v>3</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
     </row>
@@ -1920,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1935,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1950,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B45" s="5">
         <v>25</v>
@@ -1965,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -1975,7 +1977,7 @@
       <c r="C46"/>
       <c r="D46" s="1">
         <f>SUM(D35:D45)</f>
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -1983,27 +1985,27 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
-        <v>44</v>
+      <c r="A49" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="B49" s="11">
         <v>6.3</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D49" s="11">
         <f>B49/1</f>
@@ -2012,13 +2014,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B50" s="11">
         <v>10.71</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D50" s="11">
         <f>B50/1</f>
@@ -2026,14 +2028,14 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="6" t="s">
-        <v>55</v>
+      <c r="A51" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="B51" s="11">
         <v>8.9499999999999993</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D51" s="11">
         <f>B51/3</f>
@@ -2042,13 +2044,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B52" s="11">
         <v>9.4499999999999993</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D52" s="11">
         <f>B52/3</f>
@@ -2057,22 +2059,22 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B53" s="11">
         <v>0</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D53" s="11">
-        <f t="shared" ref="D53:D56" si="5">B53/1</f>
+        <f t="shared" ref="D53:D56" si="14">B53/1</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B54" s="11">
         <v>10.36</v>
@@ -2084,7 +2086,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B55" s="11">
         <v>35.200000000000003</v>
@@ -2096,16 +2098,16 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B56" s="11">
         <v>6.3</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D56" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>6.3</v>
       </c>
     </row>
@@ -2116,6 +2118,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:N8"/>
+  </mergeCells>
   <conditionalFormatting sqref="B6">
     <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
       <formula>$B$5</formula>
